--- a/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 1.1.xlsx
+++ b/data/Data tables for Australia's mothers and babies 2018—data visualisations/Table 1.1.xlsx
@@ -8,62 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d08107d86ebdc691/Documents/GitHub/finalproject/data/Data tables for Australia's mothers and babies 2018—data visualisations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E0A4EC-C247-4959-BEC6-0126B23AEFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{25E0A4EC-C247-4959-BEC6-0126B23AEFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F45C0C5-894D-49EB-AEE3-0A9CF36AF07D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4E087FE-B51B-4685-A376-0B521DF7C54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_AMO_SingleObject_195972243_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_195972243_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_195972243_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
-    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]denom &lt;20, &gt;35'!$A$3:$L$17</definedName>
-    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]denom &lt;20, &gt;35'!$A$19:$L$19</definedName>
-    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]denom &lt;20, &gt;35'!$A$1:$L$1</definedName>
-    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS output_age35+'!$A$3:$L$17</definedName>
-    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS output_age35+'!$A$19:$L$19</definedName>
-    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS output_age35+'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]denom &lt;20, &gt;35'!$A$3:$L$17</definedName>
+    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]denom &lt;20, &gt;35'!$A$19:$L$19</definedName>
+    <definedName name="_AMO_SingleObject_238125143_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]denom &lt;20, &gt;35'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS output_age35+'!$A$3:$L$17</definedName>
+    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS output_age35+'!$A$19:$L$19</definedName>
+    <definedName name="_AMO_SingleObject_264248334_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS output_age35+'!$A$1:$L$1</definedName>
     <definedName name="_AMO_SingleObject_46748428_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_46748428_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_46748428_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
-    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_output &lt;20'!$A$3:$L$16</definedName>
-    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS_output &lt;20'!$A$18:$L$18</definedName>
-    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_output &lt;20'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_output &lt;20'!$A$3:$L$16</definedName>
+    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS_output &lt;20'!$A$18:$L$18</definedName>
+    <definedName name="_AMO_SingleObject_519262224_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_output &lt;20'!$A$1:$L$1</definedName>
     <definedName name="_AMO_SingleObject_523296844_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_523296844_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_523296844_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_53628100_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_53628100_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_53628100_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
-    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_&lt;20 and &gt;35yrs'!$A$3:$L$15</definedName>
-    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS_&lt;20 and &gt;35yrs'!$A$17:$L$17</definedName>
-    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_&lt;20 and &gt;35yrs'!$A$1:$L$1</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$28:$P$28</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.HDR.TXT2" hidden="1">'[2]SAS_output ERP 2001 population'!$A$30:$P$30</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Attributes" hidden="1">'[2]SAS_output ERP 2001 population'!$G$34:$J$43</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Engine_Host_Information" hidden="1">'[2]SAS_output ERP 2001 population'!$H$45:$I$54</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Varnum" hidden="1">'[2]SAS_output ERP 2001 population'!$E$56:$K$72</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.HDR.TXT1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$32:$P$32</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.BDY.Data_Set_WORK_NEWPOPDATA" hidden="1">'[2]SAS_output ERP 2001 population'!$A$5:$P$25</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$1:$P$1</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.HDR.TXT2" hidden="1">'[2]SAS_output ERP 2001 population'!$A$3:$P$3</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$76:$P$76</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT2" hidden="1">'[2]SAS_output ERP 2001 population'!$A$78:$P$78</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.SEC2.BDY.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_output ERP 2001 population'!$D$82:$M$99</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.SEC2.HDR.Year_2001_Cross_tabular_summary_report" hidden="1">'[2]SAS_output ERP 2001 population'!$A$80:$P$80</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$103:$P$103</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1_2" hidden="1">'[2]SAS_output ERP 2001 population'!$A$105:$P$105</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.SEC2.BDY.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_output ERP 2001 population'!$D$109:$M$126</definedName>
-    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_output ERP 2001 population'!$A$107:$P$107</definedName>
-    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS OUTPUT_age std_num'!$A$3:$L$21</definedName>
-    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS OUTPUT_age std_num'!$A$23:$L$23</definedName>
-    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS OUTPUT_age std_num'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_&lt;20 and &gt;35yrs'!$A$3:$L$15</definedName>
+    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS_&lt;20 and &gt;35yrs'!$A$17:$L$17</definedName>
+    <definedName name="_AMO_SingleObject_630616335_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_&lt;20 and &gt;35yrs'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$28:$P$28</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.HDR.TXT2" hidden="1">'[1]SAS_output ERP 2001 population'!$A$30:$P$30</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Attributes" hidden="1">'[1]SAS_output ERP 2001 population'!$G$34:$J$43</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Engine_Host_Information" hidden="1">'[1]SAS_output ERP 2001 population'!$H$45:$I$54</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.BDY.WORK_NEWPOPDATA_Varnum" hidden="1">'[1]SAS_output ERP 2001 population'!$E$56:$K$72</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Contents_1.SEC1.SEC2.HDR.TXT1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$32:$P$32</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.BDY.Data_Set_WORK_NEWPOPDATA" hidden="1">'[1]SAS_output ERP 2001 population'!$A$5:$P$25</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$1:$P$1</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Print_1.SEC1.HDR.TXT2" hidden="1">'[1]SAS_output ERP 2001 population'!$A$3:$P$3</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$76:$P$76</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT2" hidden="1">'[1]SAS_output ERP 2001 population'!$A$78:$P$78</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.SEC2.BDY.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_output ERP 2001 population'!$D$82:$M$99</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC1.SEC2.HDR.Year_2001_Cross_tabular_summary_report" hidden="1">'[1]SAS_output ERP 2001 population'!$A$80:$P$80</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$103:$P$103</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1_2" hidden="1">'[1]SAS_output ERP 2001 population'!$A$105:$P$105</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.SEC2.BDY.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_output ERP 2001 population'!$D$109:$M$126</definedName>
+    <definedName name="_AMO_SingleObject_748751766_ROM_F0.SEC2.Tabulate_1.SEC2.SEC2.HDR.Year_2001_Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_output ERP 2001 population'!$A$107:$P$107</definedName>
+    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS OUTPUT_age std_num'!$A$3:$L$21</definedName>
+    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS OUTPUT_age std_num'!$A$23:$L$23</definedName>
+    <definedName name="_AMO_SingleObject_788980313_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS OUTPUT_age std_num'!$A$1:$L$1</definedName>
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_1.SEC1.BDY.Detailed_and_or_summarized_report" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_1.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_10.SEC1.BDY.Detailed_and_or_summarized_report" hidden="1">#REF!</definedName>
@@ -92,12 +92,12 @@
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_8.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_9.SEC1.BDY.Detailed_and_or_summarized_report" hidden="1">#REF!</definedName>
     <definedName name="_AMO_SingleObject_910542735_ROM_F0.SEC2.Report_9.SEC1.HDR.TXT1" hidden="1">#REF!</definedName>
-    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS output denom &lt;20'!$A$3:$L$18</definedName>
-    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS output denom &lt;20'!$A$20:$L$20</definedName>
-    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS output denom &lt;20'!$A$1:$L$1</definedName>
-    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[2]SAS_Output age std_denom'!$A$3:$L$25</definedName>
-    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[2]SAS_Output age std_denom'!$A$27:$L$27</definedName>
-    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[2]SAS_Output age std_denom'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS output denom &lt;20'!$A$3:$L$18</definedName>
+    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS output denom &lt;20'!$A$20:$L$20</definedName>
+    <definedName name="_AMO_SingleObject_957872770_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS output denom &lt;20'!$A$1:$L$1</definedName>
+    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.BDY.Cross_tabular_summary_report_Table_1" hidden="1">'[1]SAS_Output age std_denom'!$A$3:$L$25</definedName>
+    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.FTR.TXT1" hidden="1">'[1]SAS_Output age std_denom'!$A$27:$L$27</definedName>
+    <definedName name="_AMO_SingleObject_96939852_ROM_F0.SEC2.Tabulate_1.SEC1.HDR.TXT1" hidden="1">'[1]SAS_Output age std_denom'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1.1'!$A$8:$E$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1.1'!$A$1:$F$118</definedName>
   </definedNames>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="21">
   <si>
     <t/>
   </si>
@@ -358,28 +358,10 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,8 +382,26 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -422,91 +422,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Table of contents"/>
-      <sheetName val="Symbols"/>
-      <sheetName val="Table 1.1"/>
-      <sheetName val="Table 1.2"/>
-      <sheetName val="Table 1.3"/>
-      <sheetName val="Table 1.4"/>
-      <sheetName val="Table 2.1"/>
-      <sheetName val="Table 2.2"/>
-      <sheetName val="Table 2.3"/>
-      <sheetName val="Table 2.4"/>
-      <sheetName val="Table 2.5"/>
-      <sheetName val="Table 3.1"/>
-      <sheetName val="Table 3.2"/>
-      <sheetName val="Table 3.3"/>
-      <sheetName val="Table 3.4"/>
-      <sheetName val="Table 3.5"/>
-      <sheetName val="Table 3.6"/>
-      <sheetName val="Table 3.7"/>
-      <sheetName val="Table 4.1"/>
-      <sheetName val="Table 4.2"/>
-      <sheetName val="Table 4.3"/>
-      <sheetName val="Table 4.4"/>
-      <sheetName val="Table 4.5"/>
-      <sheetName val="Table 4.6"/>
-      <sheetName val="Table 4.7"/>
-      <sheetName val="Table 5.1"/>
-      <sheetName val="Table 6.1"/>
-      <sheetName val="Table 6.2"/>
-      <sheetName val="Table 6.3"/>
-      <sheetName val="Table 6.4"/>
-      <sheetName val="Table 1 notes"/>
-      <sheetName val="Table 2 notes"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Table 3 notes"/>
-      <sheetName val="Table 4 notes"/>
-      <sheetName val="Table 5 notes"/>
-      <sheetName val="Table 6 notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7295,2078 +7210,2078 @@
   </sheetPr>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.88671875" style="3"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>2008</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>292159</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>2009</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>294547</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>2010</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>295455</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>2011</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <v>297343</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>2012</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>307570</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>2013</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>304777</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>2014</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>307844</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>2015</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
         <v>304268</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>2016</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>310247</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>2017</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="7">
         <v>301095</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>2018</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>298630</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>2008</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="8">
         <v>65.3</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>2009</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="8">
         <v>64.599999999999994</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>2010</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="8">
         <v>63.9</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>2011</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="8">
         <v>63.7</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>2012</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="8">
         <v>64.8</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>2013</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="8">
         <v>63.3</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="6">
         <v>2014</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="8">
         <v>63.2</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="6">
         <v>2015</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="8">
         <v>61.7</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="6">
         <v>2016</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="8">
         <v>62.3</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="6">
         <v>2017</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="8">
         <v>59.6</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="6">
         <v>2018</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="8">
         <v>58.4</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="6">
         <v>2008</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="7">
         <v>292140</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="8">
         <v>29.9</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="6">
         <v>2009</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="7">
         <v>294309</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="8">
         <v>30</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="6">
         <v>2010</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="7">
         <v>295359</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="8">
         <v>30</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="6">
         <v>2011</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="7">
         <v>297226</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="8">
         <v>30</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="6">
         <v>2012</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="7">
         <v>307503</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="8">
         <v>30.1</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="6">
         <v>2013</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="7">
         <v>304716</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="8">
         <v>30.1</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="6">
         <v>2014</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="7">
         <v>307824</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="8">
         <v>30.2</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="6">
         <v>2015</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="7">
         <v>304247</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="8">
         <v>30.3</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="6">
         <v>2016</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="7">
         <v>310205</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="8">
         <v>30.5</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="6">
         <v>2017</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="7">
         <v>301067</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="8">
         <v>30.6</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="6">
         <v>2018</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="7">
         <v>298612</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="8">
         <v>30.7</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="6">
         <v>2009</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="7">
         <v>42625</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="8">
         <v>14.6</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="6">
         <v>2010</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="7">
         <v>39888</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="8">
         <v>13.7</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="6">
         <v>2011</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="7">
         <v>38758</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="8">
         <v>13.2</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="6">
         <v>2012</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="7">
         <v>37706</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="8">
         <v>12.5</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="6">
         <v>2013</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="7">
         <v>34966</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="8">
         <v>11.7</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="6">
         <v>2014</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="7">
         <v>33280</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="8">
         <v>11</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="6">
         <v>2015</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="7">
         <v>31268</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="8">
         <v>10.4</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="6">
         <v>2016</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="7">
         <v>30104</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="8">
         <v>9.9</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="6">
         <v>2017</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="7">
         <v>29267</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="8">
         <v>9.9</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="6">
         <v>2018</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="7">
         <v>28219</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="8">
         <v>9.6</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="6">
         <v>2008</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="7">
         <v>90766</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="8">
         <v>31.1</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="6">
         <v>2009</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="7">
         <v>92687</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="8">
         <v>31.5</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="6">
         <v>2010</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="7">
         <v>93443</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="8">
         <v>31.6</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="6">
         <v>2011</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="7">
         <v>95956</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="8">
         <v>32.299999999999997</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="6">
         <v>2012</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="7">
         <v>99522</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="8">
         <v>32.4</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="6">
         <v>2013</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="7">
         <v>99862</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="6">
         <v>2014</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="7">
         <v>101896</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="8">
         <v>33.1</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="6">
         <v>2015</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="7">
         <v>101370</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="6">
         <v>2016</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="7">
         <v>104839</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="8">
         <v>33.799999999999997</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="6">
         <v>2017</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="7">
         <v>104237</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="8">
         <v>34.6</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="6">
         <v>2018</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="7">
         <v>105477</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="6">
         <v>2008</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="7">
         <v>296928</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="6">
         <v>2009</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="7">
         <v>299227</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="6">
         <v>2010</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="7">
         <v>300215</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="6">
         <v>2011</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="7">
         <v>302025</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="6">
         <v>2012</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="7">
         <v>312251</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="6">
         <v>2013</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="7">
         <v>309489</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="6">
         <v>2014</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="7">
         <v>312548</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="2"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="6">
         <v>2015</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="7">
         <v>308887</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="6">
         <v>2016</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="7">
         <v>314814</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="2"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="6">
         <v>2017</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="7">
         <v>305667</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="6">
         <v>2018</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="7">
         <v>303029</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="2"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="6">
         <v>2008</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="7">
         <v>18103</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="8">
         <v>6.1</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="6">
         <v>2009</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="7">
         <v>18347</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="8">
         <v>6.2</v>
       </c>
-      <c r="F75" s="2"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="6">
         <v>2010</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="7">
         <v>18540</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="8">
         <v>6.2</v>
       </c>
-      <c r="F76" s="2"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="6">
         <v>2011</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="7">
         <v>18839</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="8">
         <v>6.3</v>
       </c>
-      <c r="F77" s="2"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="6">
         <v>2012</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="7">
         <v>19249</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="8">
         <v>6.2</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="6">
         <v>2013</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="7">
         <v>19597</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="8">
         <v>6.4</v>
       </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="6">
         <v>2014</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="7">
         <v>19833</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="8">
         <v>6.4</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="6">
         <v>2015</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="7">
         <v>19852</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="8">
         <v>6.5</v>
       </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="6">
         <v>2016</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="7">
         <v>20430</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="8">
         <v>6.5</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="A83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="6">
         <v>2017</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="7">
         <v>20271</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="8">
         <v>6.7</v>
       </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="6">
         <v>2018</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="7">
         <v>20094</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="8">
         <v>6.7</v>
       </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="6">
         <v>2008</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="7">
         <v>24374</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F85" s="2"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="6">
         <v>2009</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="7">
         <v>24583</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="A87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="6">
         <v>2010</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="7">
         <v>24806</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F87" s="2"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="6">
         <v>2011</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="7">
         <v>25148</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="11" t="s">
+      <c r="A89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="6">
         <v>2012</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="7">
         <v>26530</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="8">
         <v>8.5</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="11" t="s">
+      <c r="A90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="6">
         <v>2013</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="7">
         <v>26497</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="8">
         <v>8.6</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="A91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="6">
         <v>2014</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="7">
         <v>26835</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="8">
         <v>8.6</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="11" t="s">
+      <c r="A92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="6">
         <v>2015</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="7">
         <v>26789</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F92" s="2"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="11" t="s">
+      <c r="A93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="6">
         <v>2016</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="7">
         <v>26814</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="8">
         <v>8.5</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="6">
         <v>2017</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="7">
         <v>26714</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="11" t="s">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="6">
         <v>2018</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="7">
         <v>26461</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F95" s="2"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="11" t="s">
+      <c r="A96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="6">
         <v>2008</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="7">
         <v>2189</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="8">
         <v>7.4</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="11" t="s">
+      <c r="A97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="6">
         <v>2009</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="7">
         <v>2348</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="8">
         <v>7.8</v>
       </c>
-      <c r="F97" s="2"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="6">
         <v>2010</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="7">
         <v>2201</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="8">
         <v>7.3</v>
       </c>
-      <c r="F98" s="2"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="11" t="s">
+      <c r="A99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="6">
         <v>2011</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="7">
         <v>2230</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="8">
         <v>7.4</v>
       </c>
-      <c r="F99" s="2"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="11" t="s">
+      <c r="A100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="6">
         <v>2012</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="7">
         <v>2255</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="8">
         <v>7.2</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="11" t="s">
+      <c r="A101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="6">
         <v>2013</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="7">
         <v>2191</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="8">
         <v>7.1</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="6">
         <v>2014</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="7">
         <v>2200</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="8">
         <v>7</v>
       </c>
-      <c r="F102" s="2"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="11" t="s">
+      <c r="A103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="6">
         <v>2015</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="7">
         <v>2160</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="8">
         <v>7</v>
       </c>
-      <c r="F103" s="2"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="11" t="s">
+      <c r="A104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="6">
         <v>2016</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="7">
         <v>2107</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E104" s="8">
         <v>6.7</v>
       </c>
-      <c r="F104" s="2"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="11" t="s">
+      <c r="A105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="6">
         <v>2017</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="7">
         <v>2174</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="8">
         <v>7.1</v>
       </c>
-      <c r="F105" s="2"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="A106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="6">
         <v>2018</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="7">
         <v>2118</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="8">
         <v>7</v>
       </c>
-      <c r="F106" s="2"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="11" t="s">
+      <c r="A107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="6">
         <v>2008</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="7">
         <v>833</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E107" s="8">
         <v>2.8</v>
       </c>
-      <c r="F107" s="2"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="11" t="s">
+      <c r="A108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="6">
         <v>2009</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="7">
         <v>642</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F108" s="2"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="11" t="s">
+      <c r="A109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="6">
         <v>2010</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="7">
         <v>876</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="8">
         <v>2.9</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="6">
         <v>2011</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="7">
         <v>843</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="8">
         <v>2.8</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="6">
         <v>2012</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="7">
         <v>738</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="8">
         <v>2.4</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="6">
         <v>2013</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="7">
         <v>807</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="8">
         <v>2.6</v>
       </c>
-      <c r="F112" s="2"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="A113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="6">
         <v>2014</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="7">
         <v>786</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="8">
         <v>2.5</v>
       </c>
-      <c r="F113" s="2"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="6">
         <v>2015</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="7">
         <v>689</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F114" s="2"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="11" t="s">
+      <c r="A115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="6">
         <v>2016</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="7">
         <v>742</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="8">
         <v>2.4</v>
       </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="11" t="s">
+      <c r="A116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="6">
         <v>2017</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="7">
         <v>737</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="8">
         <v>2.4</v>
       </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="6">
         <v>2018</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="7">
         <v>671</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="2"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -9387,4 +9302,1889 @@
   <pageMargins left="0.98425196850393704" right="0.01" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup scale="29" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B148B0A-42A5-4F16-B4E8-0F2D1EA9EA39}">
+  <dimension ref="A2:E111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D3" s="7">
+        <v>292159</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294547</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D5" s="7">
+        <v>295455</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D6" s="7">
+        <v>297343</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="7">
+        <v>307570</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="7">
+        <v>304777</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="7">
+        <v>307844</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D10" s="7">
+        <v>304268</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="7">
+        <v>310247</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="7">
+        <v>301095</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="7">
+        <v>298630</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D25" s="7">
+        <v>292140</v>
+      </c>
+      <c r="E25" s="8">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D26" s="7">
+        <v>294309</v>
+      </c>
+      <c r="E26" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D27" s="7">
+        <v>295359</v>
+      </c>
+      <c r="E27" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="7">
+        <v>297226</v>
+      </c>
+      <c r="E28" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D29" s="7">
+        <v>307503</v>
+      </c>
+      <c r="E29" s="8">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="7">
+        <v>304716</v>
+      </c>
+      <c r="E30" s="8">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D31" s="7">
+        <v>307824</v>
+      </c>
+      <c r="E31" s="8">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="7">
+        <v>304247</v>
+      </c>
+      <c r="E32" s="8">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310205</v>
+      </c>
+      <c r="E33" s="8">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="7">
+        <v>301067</v>
+      </c>
+      <c r="E34" s="8">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="7">
+        <v>298612</v>
+      </c>
+      <c r="E35" s="8">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D36" s="7">
+        <v>42625</v>
+      </c>
+      <c r="E36" s="8">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D37" s="7">
+        <v>39888</v>
+      </c>
+      <c r="E37" s="8">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D38" s="7">
+        <v>38758</v>
+      </c>
+      <c r="E38" s="8">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D39" s="7">
+        <v>37706</v>
+      </c>
+      <c r="E39" s="8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D40" s="7">
+        <v>34966</v>
+      </c>
+      <c r="E40" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D41" s="7">
+        <v>33280</v>
+      </c>
+      <c r="E41" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="7">
+        <v>31268</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D43" s="7">
+        <v>30104</v>
+      </c>
+      <c r="E43" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D44" s="7">
+        <v>29267</v>
+      </c>
+      <c r="E44" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D45" s="7">
+        <v>28219</v>
+      </c>
+      <c r="E45" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D46" s="7">
+        <v>90766</v>
+      </c>
+      <c r="E46" s="8">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D47" s="7">
+        <v>92687</v>
+      </c>
+      <c r="E47" s="8">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D48" s="7">
+        <v>93443</v>
+      </c>
+      <c r="E48" s="8">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D49" s="7">
+        <v>95956</v>
+      </c>
+      <c r="E49" s="8">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D50" s="7">
+        <v>99522</v>
+      </c>
+      <c r="E50" s="8">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D51" s="7">
+        <v>99862</v>
+      </c>
+      <c r="E51" s="8">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D52" s="7">
+        <v>101896</v>
+      </c>
+      <c r="E52" s="8">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D53" s="7">
+        <v>101370</v>
+      </c>
+      <c r="E53" s="8">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D54" s="7">
+        <v>104839</v>
+      </c>
+      <c r="E54" s="8">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D55" s="7">
+        <v>104237</v>
+      </c>
+      <c r="E55" s="8">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D56" s="7">
+        <v>105477</v>
+      </c>
+      <c r="E56" s="8">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D57" s="7">
+        <v>296928</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D58" s="7">
+        <v>299227</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D59" s="7">
+        <v>300215</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D60" s="7">
+        <v>302025</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D61" s="7">
+        <v>312251</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D62" s="7">
+        <v>309489</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D63" s="7">
+        <v>312548</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D64" s="7">
+        <v>308887</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D65" s="7">
+        <v>314814</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D66" s="7">
+        <v>305667</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="7">
+        <v>303029</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D68" s="7">
+        <v>18103</v>
+      </c>
+      <c r="E68" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D69" s="7">
+        <v>18347</v>
+      </c>
+      <c r="E69" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D70" s="7">
+        <v>18540</v>
+      </c>
+      <c r="E70" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D71" s="7">
+        <v>18839</v>
+      </c>
+      <c r="E71" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D72" s="7">
+        <v>19249</v>
+      </c>
+      <c r="E72" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D73" s="7">
+        <v>19597</v>
+      </c>
+      <c r="E73" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D74" s="7">
+        <v>19833</v>
+      </c>
+      <c r="E74" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D75" s="7">
+        <v>19852</v>
+      </c>
+      <c r="E75" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D76" s="7">
+        <v>20430</v>
+      </c>
+      <c r="E76" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D77" s="7">
+        <v>20271</v>
+      </c>
+      <c r="E77" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D78" s="7">
+        <v>20094</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D79" s="7">
+        <v>24374</v>
+      </c>
+      <c r="E79" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D80" s="7">
+        <v>24583</v>
+      </c>
+      <c r="E80" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D81" s="7">
+        <v>24806</v>
+      </c>
+      <c r="E81" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D82" s="7">
+        <v>25148</v>
+      </c>
+      <c r="E82" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D83" s="7">
+        <v>26530</v>
+      </c>
+      <c r="E83" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D84" s="7">
+        <v>26497</v>
+      </c>
+      <c r="E84" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D85" s="7">
+        <v>26835</v>
+      </c>
+      <c r="E85" s="8">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D86" s="7">
+        <v>26789</v>
+      </c>
+      <c r="E86" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D87" s="7">
+        <v>26814</v>
+      </c>
+      <c r="E87" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D88" s="7">
+        <v>26714</v>
+      </c>
+      <c r="E88" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D89" s="7">
+        <v>26461</v>
+      </c>
+      <c r="E89" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2189</v>
+      </c>
+      <c r="E90" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D91" s="7">
+        <v>2348</v>
+      </c>
+      <c r="E91" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2201</v>
+      </c>
+      <c r="E92" s="8">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D93" s="7">
+        <v>2230</v>
+      </c>
+      <c r="E93" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2255</v>
+      </c>
+      <c r="E94" s="8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D95" s="7">
+        <v>2191</v>
+      </c>
+      <c r="E95" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D96" s="7">
+        <v>2200</v>
+      </c>
+      <c r="E96" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2160</v>
+      </c>
+      <c r="E97" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D98" s="7">
+        <v>2107</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D99" s="7">
+        <v>2174</v>
+      </c>
+      <c r="E99" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2118</v>
+      </c>
+      <c r="E100" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D101" s="7">
+        <v>833</v>
+      </c>
+      <c r="E101" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D102" s="7">
+        <v>642</v>
+      </c>
+      <c r="E102" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D103" s="7">
+        <v>876</v>
+      </c>
+      <c r="E103" s="8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D104" s="7">
+        <v>843</v>
+      </c>
+      <c r="E104" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="6">
+        <v>2012</v>
+      </c>
+      <c r="D105" s="7">
+        <v>738</v>
+      </c>
+      <c r="E105" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D106" s="7">
+        <v>807</v>
+      </c>
+      <c r="E106" s="8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D107" s="7">
+        <v>786</v>
+      </c>
+      <c r="E107" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D108" s="7">
+        <v>689</v>
+      </c>
+      <c r="E108" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D109" s="7">
+        <v>742</v>
+      </c>
+      <c r="E109" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D110" s="7">
+        <v>737</v>
+      </c>
+      <c r="E110" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D111" s="7">
+        <v>671</v>
+      </c>
+      <c r="E111" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>